--- a/ocms/src/test/resources/TestData/AttributesData.xlsx
+++ b/ocms/src/test/resources/TestData/AttributesData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CBC9AD-CEB9-4498-B87D-4A46D55D3434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2388" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid" sheetId="3" r:id="rId2"/>
+    <sheet name="Search" sheetId="3" r:id="rId2"/>
     <sheet name="Queries" sheetId="5" r:id="rId3"/>
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
     <sheet name="Update" sheetId="2" r:id="rId5"/>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -485,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -573,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,10 +630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
